--- a/inst/extdata/DataSet.xlsx
+++ b/inst/extdata/DataSet.xlsx
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Project</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>NOTPROP</t>
+  </si>
+  <si>
+    <t>NOTSTUD</t>
   </si>
 </sst>
 </file>
@@ -1816,261 +1819,264 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3">
-        <v>27.586206896551701</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="B2" s="3">
-        <v>27.586206896551701</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="C2" s="3">
-        <v>75.862068965517196</v>
+        <v>59.259259259259302</v>
       </c>
       <c r="D2" s="3">
-        <v>27.586206896551701</v>
+        <v>55.5555555555556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
-        <v>40.625</v>
+        <v>36.923076923076898</v>
       </c>
       <c r="B3" s="3">
-        <v>40.625</v>
+        <v>33.846153846153797</v>
       </c>
       <c r="C3" s="3">
-        <v>84.375</v>
+        <v>41.538461538461497</v>
       </c>
       <c r="D3" s="3">
-        <v>43.75</v>
+        <v>53.846153846153797</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>37.7777777777778</v>
+        <v>44.827586206896598</v>
       </c>
       <c r="B4" s="3">
-        <v>42.962962962962997</v>
+        <v>48.275862068965502</v>
       </c>
       <c r="C4" s="3">
-        <v>60</v>
+        <v>48.275862068965502</v>
       </c>
       <c r="D4" s="3">
-        <v>51.1111111111111</v>
+        <v>51.724137931034498</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
-        <v>37.614678899082598</v>
+        <v>42.424242424242401</v>
       </c>
       <c r="B5" s="3">
-        <v>37.614678899082598</v>
+        <v>39.393939393939398</v>
       </c>
       <c r="C5" s="3">
-        <v>47.706422018348597</v>
+        <v>51.515151515151501</v>
       </c>
       <c r="D5" s="3">
-        <v>33.0275229357798</v>
+        <v>39.393939393939398</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
-        <v>78.947368421052602</v>
+        <v>34.883720930232599</v>
       </c>
       <c r="B6" s="3">
-        <v>79.904306220095705</v>
+        <v>30.232558139534898</v>
       </c>
       <c r="C6" s="3">
-        <v>78.947368421052602</v>
+        <v>39.534883720930203</v>
       </c>
       <c r="D6" s="3">
-        <v>79.904306220095705</v>
+        <v>32.558139534883701</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
-        <v>39.233038348082601</v>
+        <v>35.9375</v>
       </c>
       <c r="B7" s="3">
-        <v>45.4277286135693</v>
+        <v>14.0625</v>
       </c>
       <c r="C7" s="3">
-        <v>88.495575221238894</v>
+        <v>15.625</v>
       </c>
       <c r="D7" s="3">
-        <v>41.592920353982301</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3">
-        <v>60.690789473684198</v>
+        <v>69.230769230769198</v>
       </c>
       <c r="B8" s="3">
-        <v>60.855263157894697</v>
+        <v>69.230769230769198</v>
       </c>
       <c r="C8" s="3">
-        <v>72.368421052631604</v>
+        <v>69.230769230769198</v>
       </c>
       <c r="D8" s="3">
-        <v>59.375</v>
+        <v>69.230769230769198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>49.082568807339399</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="B9" s="3">
-        <v>51.0321100917431</v>
+        <v>61.1111111111111</v>
       </c>
       <c r="C9" s="3">
-        <v>56.192660550458697</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="D9" s="3">
-        <v>44.266055045871603</v>
+        <v>77.7777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
-        <v>49.740932642487003</v>
+        <v>77.272727272727295</v>
       </c>
       <c r="B10" s="3">
-        <v>48.290155440414502</v>
+        <v>63.636363636363598</v>
       </c>
       <c r="C10" s="3">
-        <v>73.782383419689097</v>
+        <v>66.477272727272705</v>
       </c>
       <c r="D10" s="3">
-        <v>48.082901554404103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
-        <v>39.639639639639597</v>
+        <v>29.629629629629601</v>
       </c>
       <c r="B11" s="3">
-        <v>39.639639639639597</v>
+        <v>48.148148148148103</v>
       </c>
       <c r="C11" s="3">
-        <v>45.045045045045001</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="D11" s="3">
-        <v>36.936936936936902</v>
+        <v>59.259259259259302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">
-        <v>80.573951434878595</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="B12" s="3">
-        <v>85.4304635761589</v>
+        <v>62.962962962962997</v>
       </c>
       <c r="C12" s="3">
-        <v>47.682119205298001</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="D12" s="3">
-        <v>51.6556291390729</v>
+        <v>77.7777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
-        <v>23.863636363636399</v>
+        <v>48.8888888888889</v>
       </c>
       <c r="B13" s="3">
-        <v>24.431818181818201</v>
+        <v>48.8888888888889</v>
       </c>
       <c r="C13" s="3">
-        <v>60.795454545454497</v>
+        <v>42.2222222222222</v>
       </c>
       <c r="D13" s="3">
-        <v>27.272727272727298</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
-        <v>39.682539682539698</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3">
-        <v>40.476190476190503</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3">
-        <v>48.412698412698397</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
-        <v>42.063492063492099</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
-        <v>68.539325842696599</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3">
-        <v>65.168539325842701</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3">
-        <v>74.157303370786494</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3">
-        <v>64.606741573033702</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
-        <v>51.535836177474401</v>
+        <v>59.523809523809497</v>
       </c>
       <c r="B16" s="3">
-        <v>62.457337883958999</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="C16" s="3">
-        <v>52.559726962457297</v>
+        <v>52.380952380952401</v>
       </c>
       <c r="D16" s="3">
-        <v>44.709897610921502</v>
+        <v>30.952380952380999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
-        <v>31.534090909090899</v>
+        <v>44.871794871794897</v>
       </c>
       <c r="B17" s="3">
-        <v>32.670454545454497</v>
+        <v>47.863247863247899</v>
       </c>
       <c r="C17" s="3">
-        <v>40.625</v>
+        <v>57.264957264957303</v>
       </c>
       <c r="D17" s="3">
-        <v>30.965909090909101</v>
+        <v>55.982905982905997</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3">
-        <v>30.604026845637598</v>
+        <v>35.5555555555556</v>
       </c>
       <c r="B18" s="3">
-        <v>31.140939597315398</v>
+        <v>48.8888888888889</v>
       </c>
       <c r="C18" s="3">
-        <v>49.395973154362402</v>
+        <v>15.5555555555556</v>
       </c>
       <c r="D18" s="3">
-        <v>33.825503355704697</v>
+        <v>42.2222222222222</v>
       </c>
     </row>
   </sheetData>
